--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3182.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3182.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.205269031666862</v>
+        <v>1.012386560440063</v>
       </c>
       <c r="B1">
-        <v>2.118238692281946</v>
+        <v>2.0063157081604</v>
       </c>
       <c r="C1">
-        <v>7.119558419079254</v>
+        <v>3.569568395614624</v>
       </c>
       <c r="D1">
-        <v>3.701048996593967</v>
+        <v>2.495243549346924</v>
       </c>
       <c r="E1">
-        <v>1.414066715993391</v>
+        <v>0.3393259644508362</v>
       </c>
     </row>
   </sheetData>
